--- a/Sphere.xlsx
+++ b/Sphere.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -518,8 +518,38 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -711,8 +741,38 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -904,8 +964,38 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1197,7 +1287,7 @@
         <c:axId val="296688576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0"/>
+          <c:max val="-2"/>
           <c:min val="-4"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1512,8 +1602,38 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1705,8 +1825,38 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1898,8 +2048,38 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2191,6 +2371,7 @@
         <c:axId val="309873512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="-2"/>
           <c:min val="-4"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3184,6 +3365,7 @@
         <c:axId val="396045848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="-2"/>
           <c:min val="-4"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5607,16 +5789,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5643,16 +5825,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5684,16 +5866,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5725,16 +5907,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>395286</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>242886</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6100,7 +6282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView topLeftCell="A219" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
@@ -11187,7 +11369,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11201,7 +11383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -11216,8 +11398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
